--- a/output/3Y_P18_KFSDIV.xlsx
+++ b/output/3Y_P18_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -3574,10 +3577,10 @@
         <v>130351.3155</v>
       </c>
       <c r="K14" s="1">
-        <v>111449.5687</v>
+        <v>111455.9287</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5018</v>
+        <v>13.5026</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -3627,10 +3630,10 @@
         <v>128213.4255</v>
       </c>
       <c r="K15" s="1">
-        <v>126492.0302</v>
+        <v>126498.3903</v>
       </c>
       <c r="L15" s="1">
-        <v>13.5581</v>
+        <v>13.5588</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -3680,10 +3683,10 @@
         <v>139743.3783</v>
       </c>
       <c r="K16" s="1">
-        <v>150497.7207</v>
+        <v>150504.0808</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3387</v>
+        <v>13.3392</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -3733,10 +3736,10 @@
         <v>149549.9063</v>
       </c>
       <c r="K17" s="1">
-        <v>160497.7207</v>
+        <v>160504.0808</v>
       </c>
       <c r="L17" s="1">
-        <v>13.2786</v>
+        <v>13.2791</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -3786,10 +3789,10 @@
         <v>171429.9258</v>
       </c>
       <c r="K18" s="1">
-        <v>170497.7207</v>
+        <v>170504.0808</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2251</v>
+        <v>13.2256</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -3839,10 +3842,10 @@
         <v>187361.9458</v>
       </c>
       <c r="K19" s="1">
-        <v>174523.0388</v>
+        <v>174529.3989</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2181</v>
+        <v>13.2185</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -3892,10 +3895,10 @@
         <v>204458.6908</v>
       </c>
       <c r="K20" s="1">
-        <v>178591.1874</v>
+        <v>178597.5475</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2217</v>
+        <v>13.2222</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -3945,10 +3948,10 @@
         <v>230743.7448</v>
       </c>
       <c r="K21" s="1">
-        <v>181489.7627</v>
+        <v>181496.1228</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2321</v>
+        <v>13.2326</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -3998,10 +4001,10 @@
         <v>250818.0036</v>
       </c>
       <c r="K22" s="1">
-        <v>181270.5895</v>
+        <v>181277.8244</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2306</v>
+        <v>13.2311</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -4051,10 +4054,10 @@
         <v>240417.7531</v>
       </c>
       <c r="K23" s="1">
-        <v>181196.0329</v>
+        <v>181203.5657</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2298</v>
+        <v>13.2304</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -4104,10 +4107,10 @@
         <v>260489.316</v>
       </c>
       <c r="K24" s="1">
-        <v>211718.1619</v>
+        <v>211725.6947</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3223</v>
+        <v>13.3227</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -4157,10 +4160,10 @@
         <v>271574.8454</v>
       </c>
       <c r="K25" s="1">
-        <v>217711.8647</v>
+        <v>217719.3974</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3438</v>
+        <v>13.3443</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -4210,10 +4213,10 @@
         <v>280258.2917</v>
       </c>
       <c r="K26" s="1">
-        <v>226638.0588</v>
+        <v>226645.5916</v>
       </c>
       <c r="L26" s="1">
-        <v>13.3764</v>
+        <v>13.3768</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -4263,10 +4266,10 @@
         <v>319325.2656</v>
       </c>
       <c r="K27" s="1">
-        <v>237964.2001</v>
+        <v>237971.7328</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4111</v>
+        <v>13.4115</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -4316,10 +4319,10 @@
         <v>329879.2381</v>
       </c>
       <c r="K28" s="1">
-        <v>226430.3148</v>
+        <v>226483.9477</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3249</v>
+        <v>13.3281</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -4369,10 +4372,10 @@
         <v>327205.0757</v>
       </c>
       <c r="K29" s="1">
-        <v>235914.23</v>
+        <v>235967.8628</v>
       </c>
       <c r="L29" s="1">
-        <v>13.3973</v>
+        <v>13.4004</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -4422,10 +4425,10 @@
         <v>369047.4384</v>
       </c>
       <c r="K30" s="1">
-        <v>258641.2641</v>
+        <v>258694.897</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5005</v>
+        <v>13.5033</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -4475,10 +4478,10 @@
         <v>392339.9651</v>
       </c>
       <c r="K31" s="1">
-        <v>252531.902</v>
+        <v>252609.9455</v>
       </c>
       <c r="L31" s="1">
-        <v>13.4582</v>
+        <v>13.4624</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -4528,10 +4531,10 @@
         <v>406612.581</v>
       </c>
       <c r="K32" s="1">
-        <v>249226.1754</v>
+        <v>249317.4188</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4278</v>
+        <v>13.4327</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -4581,10 +4584,10 @@
         <v>441961.481</v>
       </c>
       <c r="K33" s="1">
-        <v>254976.5129</v>
+        <v>255067.7563</v>
       </c>
       <c r="L33" s="1">
-        <v>13.4838</v>
+        <v>13.4886</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -4634,10 +4637,10 @@
         <v>447890.444</v>
       </c>
       <c r="K34" s="1">
-        <v>252121.5552</v>
+        <v>252224.2076</v>
       </c>
       <c r="L34" s="1">
-        <v>13.4513</v>
+        <v>13.4568</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -4687,10 +4690,10 @@
         <v>465148.8545</v>
       </c>
       <c r="K35" s="1">
-        <v>266249.0246</v>
+        <v>266351.677</v>
       </c>
       <c r="L35" s="1">
-        <v>13.5994</v>
+        <v>13.6046</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -4740,10 +4743,10 @@
         <v>454075.3493</v>
       </c>
       <c r="K36" s="1">
-        <v>285881.61</v>
+        <v>285984.2625</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7623</v>
+        <v>13.7673</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -4793,10 +4796,10 @@
         <v>446869.1233</v>
       </c>
       <c r="K37" s="1">
-        <v>317000.9526</v>
+        <v>317103.605</v>
       </c>
       <c r="L37" s="1">
-        <v>13.909</v>
+        <v>13.9135</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -4846,10 +4849,10 @@
         <v>416655.6014</v>
       </c>
       <c r="K38" s="1">
-        <v>344191.4941</v>
+        <v>344294.1466</v>
       </c>
       <c r="L38" s="1">
-        <v>13.966</v>
+        <v>13.9701</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -5614,10 +5617,10 @@
         <v>130447.6026</v>
       </c>
       <c r="K14" s="1">
-        <v>114637.6119</v>
+        <v>114642.8895</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5103</v>
+        <v>13.5109</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -5667,10 +5670,10 @@
         <v>127927.986</v>
       </c>
       <c r="K15" s="1">
-        <v>130439.2091</v>
+        <v>130444.4867</v>
       </c>
       <c r="L15" s="1">
-        <v>13.5666</v>
+        <v>13.5672</v>
       </c>
       <c r="M15" s="1">
         <v>0</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -5720,10 +5723,10 @@
         <v>139469.8384</v>
       </c>
       <c r="K16" s="1">
-        <v>150669.6216</v>
+        <v>150674.8992</v>
       </c>
       <c r="L16" s="1">
-        <v>13.3801</v>
+        <v>13.3806</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -5773,10 +5776,10 @@
         <v>149276.6469</v>
       </c>
       <c r="K17" s="1">
-        <v>160669.6216</v>
+        <v>160674.8992</v>
       </c>
       <c r="L17" s="1">
-        <v>13.3171</v>
+        <v>13.3175</v>
       </c>
       <c r="M17" s="1">
         <v>0.5</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -5826,10 +5829,10 @@
         <v>171135.6255</v>
       </c>
       <c r="K18" s="1">
-        <v>170669.6216</v>
+        <v>170674.8992</v>
       </c>
       <c r="L18" s="1">
-        <v>13.2611</v>
+        <v>13.2616</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -5879,10 +5882,10 @@
         <v>187282.4827</v>
       </c>
       <c r="K19" s="1">
-        <v>181981.4567</v>
+        <v>181986.7343</v>
       </c>
       <c r="L19" s="1">
-        <v>13.2399</v>
+        <v>13.2403</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -5932,10 +5935,10 @@
         <v>204687.1725</v>
       </c>
       <c r="K20" s="1">
-        <v>186693.065</v>
+        <v>186698.3426</v>
       </c>
       <c r="L20" s="1">
-        <v>13.2434</v>
+        <v>13.2437</v>
       </c>
       <c r="M20" s="1">
         <v>0.5</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -5985,10 +5988,10 @@
         <v>231708.1684</v>
       </c>
       <c r="K21" s="1">
-        <v>190222.9357</v>
+        <v>190228.2133</v>
       </c>
       <c r="L21" s="1">
-        <v>13.2551</v>
+        <v>13.2555</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -6038,10 +6041,10 @@
         <v>252274.4077</v>
       </c>
       <c r="K22" s="1">
-        <v>190526.7194</v>
+        <v>190531.997</v>
       </c>
       <c r="L22" s="1">
-        <v>13.2572</v>
+        <v>13.2575</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -6091,10 +6094,10 @@
         <v>240819.1738</v>
       </c>
       <c r="K23" s="1">
-        <v>191010.1546</v>
+        <v>191015.4322</v>
       </c>
       <c r="L23" s="1">
-        <v>13.2618</v>
+        <v>13.2622</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -6144,10 +6147,10 @@
         <v>261419.0408</v>
       </c>
       <c r="K24" s="1">
-        <v>223698.1851</v>
+        <v>223703.4627</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3512</v>
+        <v>13.3516</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -6197,10 +6200,10 @@
         <v>272564.0093</v>
       </c>
       <c r="K25" s="1">
-        <v>230636.5703</v>
+        <v>230641.8479</v>
       </c>
       <c r="L25" s="1">
-        <v>13.374</v>
+        <v>13.3743</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -6250,10 +6253,10 @@
         <v>281166.4101</v>
       </c>
       <c r="K26" s="1">
-        <v>240719.695</v>
+        <v>240724.9726</v>
       </c>
       <c r="L26" s="1">
-        <v>13.4075</v>
+        <v>13.4078</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -6303,10 +6306,10 @@
         <v>322022.9653</v>
       </c>
       <c r="K27" s="1">
-        <v>253399.2646</v>
+        <v>253404.5422</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4426</v>
+        <v>13.4429</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -6356,10 +6359,10 @@
         <v>332612.9867</v>
       </c>
       <c r="K28" s="1">
-        <v>241853.2094</v>
+        <v>241904.6357</v>
       </c>
       <c r="L28" s="1">
-        <v>13.3629</v>
+        <v>13.3658</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -6409,10 +6412,10 @@
         <v>329076.7836</v>
       </c>
       <c r="K29" s="1">
-        <v>252691.0801</v>
+        <v>252742.5064</v>
       </c>
       <c r="L29" s="1">
-        <v>13.439</v>
+        <v>13.4417</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -6462,10 +6465,10 @@
         <v>373118.5919</v>
       </c>
       <c r="K30" s="1">
-        <v>277725.479</v>
+        <v>277776.9053</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5417</v>
+        <v>13.5442</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -6515,10 +6518,10 @@
         <v>397384.8624</v>
       </c>
       <c r="K31" s="1">
-        <v>271982.0159</v>
+        <v>272056.391</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5054</v>
+        <v>13.5091</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -6568,10 +6571,10 @@
         <v>411982.1995</v>
       </c>
       <c r="K32" s="1">
-        <v>269261.1004</v>
+        <v>269346.3402</v>
       </c>
       <c r="L32" s="1">
-        <v>13.4826</v>
+        <v>13.4868</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -6621,10 +6624,10 @@
         <v>449289.5891</v>
       </c>
       <c r="K33" s="1">
-        <v>276305.8845</v>
+        <v>276391.1243</v>
       </c>
       <c r="L33" s="1">
-        <v>13.545</v>
+        <v>13.5492</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -6674,10 +6677,10 @@
         <v>454886.6832</v>
       </c>
       <c r="K34" s="1">
-        <v>274114.1496</v>
+        <v>274208.1479</v>
       </c>
       <c r="L34" s="1">
-        <v>13.5223</v>
+        <v>13.527</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -6727,10 +6730,10 @@
         <v>472706.6274</v>
       </c>
       <c r="K35" s="1">
-        <v>290312.1899</v>
+        <v>290406.1883</v>
       </c>
       <c r="L35" s="1">
-        <v>13.6757</v>
+        <v>13.6801</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -6780,10 +6783,10 @@
         <v>459794.5516</v>
       </c>
       <c r="K36" s="1">
-        <v>312549.6155</v>
+        <v>312643.6139</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8409</v>
+        <v>13.8451</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -6833,10 +6836,10 @@
         <v>451038.4645</v>
       </c>
       <c r="K37" s="1">
-        <v>347359.8893</v>
+        <v>347453.8877</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9843</v>
+        <v>13.9881</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -6886,10 +6889,10 @@
         <v>417094.6306</v>
       </c>
       <c r="K38" s="1">
-        <v>378006.6245</v>
+        <v>378100.6229</v>
       </c>
       <c r="L38" s="1">
-        <v>14.0372</v>
+        <v>14.0407</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -8396,10 +8399,10 @@
         <v>335160.1937</v>
       </c>
       <c r="K28" s="1">
-        <v>258953.4689</v>
+        <v>258999.4215</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4192</v>
+        <v>13.4215</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -8449,10 +8452,10 @@
         <v>330686.2758</v>
       </c>
       <c r="K29" s="1">
-        <v>271326.3691</v>
+        <v>271372.3218</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4981</v>
+        <v>13.5004</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -8502,10 +8505,10 @@
         <v>377123.8663</v>
       </c>
       <c r="K30" s="1">
-        <v>298943.2338</v>
+        <v>298989.1864</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5988</v>
+        <v>13.6009</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -8555,10 +8558,10 @@
         <v>402456.286</v>
       </c>
       <c r="K31" s="1">
-        <v>293678.1432</v>
+        <v>293745.1331</v>
       </c>
       <c r="L31" s="1">
-        <v>13.5687</v>
+        <v>13.5718</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -8608,10 +8611,10 @@
         <v>417410.3687</v>
       </c>
       <c r="K32" s="1">
-        <v>291682.7948</v>
+        <v>291757.7522</v>
       </c>
       <c r="L32" s="1">
-        <v>13.5535</v>
+        <v>13.557</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -8661,10 +8664,10 @@
         <v>456872.814</v>
       </c>
       <c r="K33" s="1">
-        <v>300241.3642</v>
+        <v>300316.3216</v>
       </c>
       <c r="L33" s="1">
-        <v>13.6221</v>
+        <v>13.6255</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -8714,10 +8717,10 @@
         <v>462102.8222</v>
       </c>
       <c r="K34" s="1">
-        <v>298879.1102</v>
+        <v>298959.5114</v>
       </c>
       <c r="L34" s="1">
-        <v>13.6094</v>
+        <v>13.613</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -8767,10 +8770,10 @@
         <v>480540.4302</v>
       </c>
       <c r="K35" s="1">
-        <v>317472.7814</v>
+        <v>317553.1827</v>
       </c>
       <c r="L35" s="1">
-        <v>13.7673</v>
+        <v>13.7707</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -8820,10 +8823,10 @@
         <v>465580.3707</v>
       </c>
       <c r="K36" s="1">
-        <v>342713.8742</v>
+        <v>342794.2755</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9337</v>
+        <v>13.937</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -8873,10 +8876,10 @@
         <v>455091.9208</v>
       </c>
       <c r="K37" s="1">
-        <v>381754.7664</v>
+        <v>381835.1676</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0723</v>
+        <v>14.0753</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -8926,10 +8929,10 @@
         <v>416964.8308</v>
       </c>
       <c r="K38" s="1">
-        <v>416391.6641</v>
+        <v>416472.0653</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1199</v>
+        <v>14.1226</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.5994</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.6663</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>14.701</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.8109</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.9322</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.5846</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.2867</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.0645</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.8083</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5636</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.1788</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.5668</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.962</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>12.2659</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.4103</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.3976</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>12.9013</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.3527</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.8804</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.6268</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>15.3636</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.8711</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>14.1252</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.1934</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>14.1176</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>15.3311</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>15.3637</v>
@@ -10436,10 +10439,10 @@
         <v>336258.794</v>
       </c>
       <c r="K28" s="1">
-        <v>278780.7485</v>
+        <v>278786.585</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5351</v>
+        <v>13.5354</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>14.6447</v>
@@ -10489,10 +10492,10 @@
         <v>330764.3163</v>
       </c>
       <c r="K29" s="1">
-        <v>292892.7638</v>
+        <v>292898.6003</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6144</v>
+        <v>13.6146</v>
       </c>
       <c r="M29" s="1">
         <v>1</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>15.486</v>
@@ -10542,10 +10545,10 @@
         <v>379590.9053</v>
       </c>
       <c r="K30" s="1">
-        <v>319228.3963</v>
+        <v>319234.2328</v>
       </c>
       <c r="L30" s="1">
-        <v>13.696</v>
+        <v>13.6962</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.1958</v>
@@ -10595,10 +10598,10 @@
         <v>406091.3774</v>
       </c>
       <c r="K31" s="1">
-        <v>318985.6968</v>
+        <v>318992.503</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6947</v>
+        <v>13.695</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>16.4264</v>
@@ -10648,10 +10651,10 @@
         <v>421437.6563</v>
       </c>
       <c r="K32" s="1">
-        <v>317880.6171</v>
+        <v>317891.836</v>
       </c>
       <c r="L32" s="1">
-        <v>13.6873</v>
+        <v>13.6878</v>
       </c>
       <c r="M32" s="1">
         <v>0.75</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>17.107</v>
@@ -10701,10 +10704,10 @@
         <v>463273.1476</v>
       </c>
       <c r="K33" s="1">
-        <v>328206.3573</v>
+        <v>328217.5762</v>
       </c>
       <c r="L33" s="1">
-        <v>13.7602</v>
+        <v>13.7607</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>16.8894</v>
@@ -10754,10 +10757,10 @@
         <v>468096.7874</v>
       </c>
       <c r="K34" s="1">
-        <v>327870.1043</v>
+        <v>327882.6669</v>
       </c>
       <c r="L34" s="1">
-        <v>13.7574</v>
+        <v>13.758</v>
       </c>
       <c r="M34" s="1">
         <v>1</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>16.4004</v>
@@ -10807,10 +10810,10 @@
         <v>487214.2403</v>
       </c>
       <c r="K35" s="1">
-        <v>349235.0503</v>
+        <v>349247.6129</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9167</v>
+        <v>13.9172</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3877</v>
@@ -10860,10 +10863,10 @@
         <v>469970.7724</v>
       </c>
       <c r="K36" s="1">
-        <v>377940.8178</v>
+        <v>377953.3805</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0805</v>
+        <v>14.0809</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>14.6367</v>
@@ -10913,10 +10916,10 @@
         <v>457543.9956</v>
       </c>
       <c r="K37" s="1">
-        <v>421834.8498</v>
+        <v>421847.4125</v>
       </c>
       <c r="L37" s="1">
-        <v>14.2088</v>
+        <v>14.2092</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.0061</v>
@@ -10966,10 +10969,10 @@
         <v>415338.1818</v>
       </c>
       <c r="K38" s="1">
-        <v>455709.3779</v>
+        <v>455721.9405</v>
       </c>
       <c r="L38" s="1">
-        <v>14.2418</v>
+        <v>14.2422</v>
       </c>
       <c r="M38" s="1">
         <v>0.5</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>14.4785</v>
       </c>
       <c r="D3" s="1">
-        <v>13.966</v>
+        <v>13.9701</v>
       </c>
       <c r="E3" s="1">
-        <v>14.0372</v>
+        <v>14.0407</v>
       </c>
       <c r="F3" s="1">
-        <v>14.1199</v>
+        <v>14.1226</v>
       </c>
       <c r="G3" s="1">
-        <v>14.2418</v>
+        <v>14.2422</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>110121.0732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.8965</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.2102</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1031</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0012</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9114</v>
       </c>
     </row>
   </sheetData>
